--- a/documentation/Sprint burndowncharts.xlsx
+++ b/documentation/Sprint burndowncharts.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patih\Desktop\Bachelor\bpr2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DB2B6D-8240-47DC-81B3-955D3AAEDE44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13018CEB-9A95-4AC1-B1B5-6312497B4375}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E80B7B65-E602-4B45-88E5-123038A462AE}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{E80B7B65-E602-4B45-88E5-123038A462AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>Calendar days</t>
   </si>
@@ -88,49 +92,226 @@
     <t>15th February</t>
   </si>
   <si>
-    <t xml:space="preserve">20 th February </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 th February </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 th February </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 th February </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 th February </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 st February </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 nd February </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 rd February </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 th February </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 th February </t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 th February </t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 th February </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 th February </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 th February </t>
-  </si>
-  <si>
-    <t>1 st March</t>
+    <t>2nd March</t>
+  </si>
+  <si>
+    <t>3rd March</t>
+  </si>
+  <si>
+    <t>4th March</t>
+  </si>
+  <si>
+    <t>5th March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16th February </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17th February </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18th February </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19th February </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20th February </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21st February </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22nd February </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23rd February </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24th February </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25th February </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26th February </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27th February </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28th February </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29th February </t>
+  </si>
+  <si>
+    <t>1st March</t>
+  </si>
+  <si>
+    <t>6th March</t>
+  </si>
+  <si>
+    <t>7th March</t>
+  </si>
+  <si>
+    <t>8th March</t>
+  </si>
+  <si>
+    <t>9th March</t>
+  </si>
+  <si>
+    <t>10th March</t>
+  </si>
+  <si>
+    <t>11th March</t>
+  </si>
+  <si>
+    <t>12th March</t>
+  </si>
+  <si>
+    <t>13th March</t>
+  </si>
+  <si>
+    <t>14th March</t>
+  </si>
+  <si>
+    <t>15th March</t>
+  </si>
+  <si>
+    <t>16th March</t>
+  </si>
+  <si>
+    <t>17th March</t>
+  </si>
+  <si>
+    <t>18th March</t>
+  </si>
+  <si>
+    <t>19th March</t>
+  </si>
+  <si>
+    <t>20th March</t>
+  </si>
+  <si>
+    <t>21st March</t>
+  </si>
+  <si>
+    <t>22nd March</t>
+  </si>
+  <si>
+    <t>23rd March</t>
+  </si>
+  <si>
+    <t>24th March</t>
+  </si>
+  <si>
+    <t>25th March</t>
+  </si>
+  <si>
+    <t>26th March</t>
+  </si>
+  <si>
+    <t>27th March</t>
+  </si>
+  <si>
+    <t>28th March</t>
+  </si>
+  <si>
+    <t>29th March</t>
+  </si>
+  <si>
+    <t>30th March</t>
+  </si>
+  <si>
+    <t>1st April</t>
+  </si>
+  <si>
+    <t>2nd April</t>
+  </si>
+  <si>
+    <t>3rd April</t>
+  </si>
+  <si>
+    <t>4th April</t>
+  </si>
+  <si>
+    <t>5th April</t>
+  </si>
+  <si>
+    <t>6th April</t>
+  </si>
+  <si>
+    <t>7th April</t>
+  </si>
+  <si>
+    <t>8th April</t>
+  </si>
+  <si>
+    <t>9th April</t>
+  </si>
+  <si>
+    <t>10th April</t>
+  </si>
+  <si>
+    <t>11th April</t>
+  </si>
+  <si>
+    <t>12th April</t>
+  </si>
+  <si>
+    <t>13th April</t>
+  </si>
+  <si>
+    <t>14th April</t>
+  </si>
+  <si>
+    <t>15th April</t>
+  </si>
+  <si>
+    <t>16th April</t>
+  </si>
+  <si>
+    <t>17th April</t>
+  </si>
+  <si>
+    <t>18th April</t>
+  </si>
+  <si>
+    <t>19th April</t>
+  </si>
+  <si>
+    <t>20th April</t>
+  </si>
+  <si>
+    <t>21st April</t>
+  </si>
+  <si>
+    <t>22nd April</t>
+  </si>
+  <si>
+    <t>23rd April</t>
+  </si>
+  <si>
+    <t>24th April</t>
+  </si>
+  <si>
+    <t>25th April</t>
+  </si>
+  <si>
+    <t>26th April</t>
+  </si>
+  <si>
+    <t>27th April</t>
+  </si>
+  <si>
+    <t>28th April</t>
+  </si>
+  <si>
+    <t>29 April</t>
+  </si>
+  <si>
+    <t>30 April</t>
   </si>
 </sst>
 </file>
@@ -147,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +347,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,15 +362,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -873,7 +1078,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10126137357830271"/>
+          <c:y val="0.1804399970836979"/>
+          <c:w val="0.86818307086614177"/>
+          <c:h val="0.42593649752114321"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -917,63 +1132,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sprint2!$A$2:$A$16</c:f>
+              <c:f>Sprint2!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>16 th February </c:v>
+                  <c:v>16th February </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17 th February </c:v>
+                  <c:v>17th February </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18 th February </c:v>
+                  <c:v>18th February </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19 th February </c:v>
+                  <c:v>19th February </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20 th February </c:v>
+                  <c:v>20th February </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21 st February </c:v>
+                  <c:v>21st February </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22 nd February </c:v>
+                  <c:v>22nd February </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23 rd February </c:v>
+                  <c:v>23rd February </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24 th February </c:v>
+                  <c:v>24th February </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25 th February </c:v>
+                  <c:v>25th February </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26 th February </c:v>
+                  <c:v>26th February </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27 th February </c:v>
+                  <c:v>27th February </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28 th February </c:v>
+                  <c:v>28th February </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29 th February </c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1 st March</c:v>
+                  <c:v>29th February </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint2!$B$2:$B$16</c:f>
+              <c:f>Sprint2!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1014,9 +1226,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1069,63 +1278,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sprint2!$A$2:$A$16</c:f>
+              <c:f>Sprint2!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>16 th February </c:v>
+                  <c:v>16th February </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17 th February </c:v>
+                  <c:v>17th February </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18 th February </c:v>
+                  <c:v>18th February </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19 th February </c:v>
+                  <c:v>19th February </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20 th February </c:v>
+                  <c:v>20th February </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21 st February </c:v>
+                  <c:v>21st February </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22 nd February </c:v>
+                  <c:v>22nd February </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23 rd February </c:v>
+                  <c:v>23rd February </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24 th February </c:v>
+                  <c:v>24th February </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25 th February </c:v>
+                  <c:v>25th February </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26 th February </c:v>
+                  <c:v>26th February </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27 th February </c:v>
+                  <c:v>27th February </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28 th February </c:v>
+                  <c:v>28th February </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29 th February </c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1 st March</c:v>
+                  <c:v>29th February </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint2!$C$2:$C$16</c:f>
+              <c:f>Sprint2!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1166,9 +1372,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1384,6 +1587,2364 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sprint 3 - Burdown chart </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6195319335083112E-2"/>
+          <c:y val="0.17634259259259263"/>
+          <c:w val="0.89324912510936127"/>
+          <c:h val="0.49048775153105861"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint3!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1st March</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2nd March</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3rd March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4th March</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5th March</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6th March</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7th March</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8th March</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9th March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10th March</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11th March</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12th March</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13th March</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14th March</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15th March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint3!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D097-4DE2-AB4A-5838DF3D4B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint3!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1st March</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2nd March</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3rd March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4th March</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5th March</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6th March</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7th March</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8th March</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9th March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10th March</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11th March</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12th March</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13th March</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14th March</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15th March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint3!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D097-4DE2-AB4A-5838DF3D4B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1846849007"/>
+        <c:axId val="1850888335"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1846849007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1850888335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1850888335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1846849007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sprint 4 - Burdown chart </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint4!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16th March</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17th March</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18th March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19th March</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20th March</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21st March</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22nd March</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23rd March</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24th March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25th March</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26th March</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27th March</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28th March</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29th March</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30th March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint4!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6681-4D48-80CA-9428C6FD2E48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint4!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16th March</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17th March</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18th March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19th March</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20th March</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21st March</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22nd March</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23rd March</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24th March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25th March</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26th March</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27th March</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28th March</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29th March</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30th March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint4!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6681-4D48-80CA-9428C6FD2E48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1846837407"/>
+        <c:axId val="1674964447"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1846837407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1674964447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1674964447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1846837407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sprint 5 - Burdown chart </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint5!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1st April</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2nd April</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3rd April</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4th April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5th April</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6th April</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7th April</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8th April</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9th April</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10th April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11th April</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12th April</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13th April</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14th April</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15th April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint5!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17C0-4D14-9C66-CBA584135AC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint5!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1st April</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2nd April</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3rd April</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4th April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5th April</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6th April</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7th April</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8th April</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9th April</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10th April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11th April</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12th April</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13th April</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14th April</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15th April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint5!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17C0-4D14-9C66-CBA584135AC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1845092367"/>
+        <c:axId val="1717109391"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1845092367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1717109391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1717109391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1845092367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sprint 5 - Burdown chart </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint6!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16th April</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17th April</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18th April</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19th April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20th April</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21st April</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22nd April</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23rd April</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24th April</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25th April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26th April</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27th April</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28th April</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29 April</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint6!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C18-467F-BD1A-F65A1530EE35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint6!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint6!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16th April</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17th April</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18th April</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19th April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20th April</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21st April</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22nd April</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23rd April</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24th April</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25th April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26th April</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27th April</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28th April</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29 April</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint6!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C18-467F-BD1A-F65A1530EE35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1927132703"/>
+        <c:axId val="1933143279"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1927132703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1933143279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1933143279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1927132703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1464,6 +4025,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1968,6 +4689,2018 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2475,15 +7208,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2516,15 +7249,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2532,6 +7265,170 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3779CA5-CFBD-4935-BD43-B180B800308A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631C7112-DAB2-4C7F-8C5A-81233B737895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05C4D79-B197-418B-A394-248E92133B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5A48A8-ADE2-499B-9803-400B0CA038E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05C2228-5CB0-42F6-998A-8D8F4A57F448}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2852,7 +7749,784 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5603822C-70D0-4570-AA9B-7CBE6100D44A}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F595B626-7139-4023-8329-7B84DF370BA1}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406B2E5A-C5E8-4F8B-8E05-E13B444B355A}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62981239-7B63-4727-BE4E-914DB3BED598}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,178 +8535,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
+      <c r="C4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1">
         <v>3</v>
       </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1">
         <v>3</v>
       </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>3</v>
+      <c r="C8" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
+      <c r="A9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
+      <c r="A10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
+      <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
+      <c r="A12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
+      <c r="A13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1">
         <v>1</v>
       </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="C15">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3042,192 +8716,194 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5603822C-70D0-4570-AA9B-7CBE6100D44A}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1636119-3F58-4871-8514-D807570A070B}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="C7">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="C8">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
+      <c r="C9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
+      <c r="A10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="1">
         <v>1</v>
       </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>0</v>
       </c>
     </row>

--- a/documentation/Sprint burndowncharts.xlsx
+++ b/documentation/Sprint burndowncharts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patih\Desktop\Bachelor\bpr2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13018CEB-9A95-4AC1-B1B5-6312497B4375}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25550C0B-03C6-4E53-8E34-DAA4D9F0A34D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{E80B7B65-E602-4B45-88E5-123038A462AE}"/>
   </bookViews>
@@ -3395,7 +3395,7 @@
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Sprint 5 - Burdown chart </a:t>
+              <a:t>Sprint 6 - Burdown chart </a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -8721,7 +8721,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
